--- a/Assets/06.Table/SuhoPass.xlsx
+++ b/Assets/06.Table/SuhoPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0149DE-D23D-4582-8DD1-FBADE25F4A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C38DBC-F79B-4602-890D-EA9D532C355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhoPass" sheetId="1" r:id="rId1"/>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,6 +986,206 @@
         <v>9016</v>
       </c>
       <c r="F21" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>105000000</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D22" s="5">
+        <v>200</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F22" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D23" s="5">
+        <v>200</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F23" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <v>115000000</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D24" s="5">
+        <v>200</v>
+      </c>
+      <c r="E24" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F24" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <v>120000000</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D25" s="5">
+        <v>200</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F25" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>125000000</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D26" s="5">
+        <v>200</v>
+      </c>
+      <c r="E26" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F26" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D27" s="5">
+        <v>200</v>
+      </c>
+      <c r="E27" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F27" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>135000000</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D28" s="5">
+        <v>200</v>
+      </c>
+      <c r="E28" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F28" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>140000000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D29" s="5">
+        <v>200</v>
+      </c>
+      <c r="E29" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F29" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>145000000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D30" s="5">
+        <v>200</v>
+      </c>
+      <c r="E30" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F30" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D31" s="5">
+        <v>200</v>
+      </c>
+      <c r="E31" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F31" s="5">
         <v>200</v>
       </c>
     </row>
@@ -1179,15 +1379,15 @@
       </c>
       <c r="C19" s="1">
         <f>SUMIF(SuhoPass!C:C,A19,SuhoPass!D:D)</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D19" s="1">
         <f>SUMIF(SuhoPass!C:C,A19,SuhoPass!F:F)</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E19" s="1">
         <f>C19+D19</f>
-        <v>8000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/SuhoPass.xlsx
+++ b/Assets/06.Table/SuhoPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C38DBC-F79B-4602-890D-EA9D532C355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95424D3-92FB-44BB-A877-AD5F73FA9DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhoPass" sheetId="1" r:id="rId1"/>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1186,6 +1186,206 @@
         <v>9016</v>
       </c>
       <c r="F31" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <v>155000000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D32" s="5">
+        <v>200</v>
+      </c>
+      <c r="E32" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F32" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>160000000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D33" s="5">
+        <v>200</v>
+      </c>
+      <c r="E33" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F33" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
+        <v>165000000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D34" s="5">
+        <v>200</v>
+      </c>
+      <c r="E34" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F34" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <v>170000000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D35" s="5">
+        <v>200</v>
+      </c>
+      <c r="E35" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F35" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>175000000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D36" s="5">
+        <v>200</v>
+      </c>
+      <c r="E36" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F36" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D37" s="5">
+        <v>200</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F37" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
+        <v>185000000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D38" s="5">
+        <v>200</v>
+      </c>
+      <c r="E38" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F38" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
+        <v>190000000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D39" s="5">
+        <v>200</v>
+      </c>
+      <c r="E39" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F39" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
+        <v>195000000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D40" s="5">
+        <v>200</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F40" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>9016</v>
+      </c>
+      <c r="D41" s="5">
+        <v>200</v>
+      </c>
+      <c r="E41" s="4">
+        <v>9016</v>
+      </c>
+      <c r="F41" s="5">
         <v>200</v>
       </c>
     </row>
@@ -1379,15 +1579,15 @@
       </c>
       <c r="C19" s="1">
         <f>SUMIF(SuhoPass!C:C,A19,SuhoPass!D:D)</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="D19" s="1">
         <f>SUMIF(SuhoPass!C:C,A19,SuhoPass!F:F)</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="E19" s="1">
         <f>C19+D19</f>
-        <v>12000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
